--- a/TouchPanic/tools/タッチパニック.xlsx
+++ b/TouchPanic/tools/タッチパニック.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\emulator\desmume-0.9.11-win64\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\emulator\desmume-0.9.11-win64\Git\TouchPanic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3C78AF-B9DB-4FFE-9595-8F28AE895B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A98F27-1732-4D72-8238-B710F1AE6141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23865" yWindow="4440" windowWidth="22485" windowHeight="15810" activeTab="7" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
+    <workbookView xWindow="-23445" yWindow="4380" windowWidth="22485" windowHeight="15810" activeTab="1" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="879">
   <si>
     <t>左上</t>
     <rPh sb="0" eb="2">
@@ -2633,13 +2633,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x000080BF固定</t>
-    <rPh sb="10" eb="12">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボールがくっつくと32768、次にくっつく瞬間40960</t>
     <rPh sb="15" eb="16">
       <t>ツギ</t>
@@ -3897,6 +3890,34 @@
     <t>y座標</t>
     <rPh sb="1" eb="3">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000080BF固定（-1）</t>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5707,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CA301-CCBD-476B-A030-04190DAACB76}">
-  <dimension ref="B2:Q230"/>
+  <dimension ref="B2:R230"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5718,17 +5739,18 @@
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -5739,16 +5761,19 @@
         <v>332</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="5">
         <f t="shared" ref="B3:B66" si="0">ROW()-2</f>
         <v>1</v>
@@ -5759,15 +5784,18 @@
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5778,15 +5806,18 @@
       <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5797,15 +5828,18 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5816,15 +5850,18 @@
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5835,15 +5872,18 @@
       <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5854,17 +5894,20 @@
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5875,17 +5918,20 @@
       <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5896,17 +5942,20 @@
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5917,17 +5966,20 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5938,17 +5990,20 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5959,15 +6014,18 @@
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5978,15 +6036,18 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5997,15 +6058,18 @@
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6016,15 +6080,18 @@
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6035,15 +6102,18 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6054,15 +6124,18 @@
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6073,15 +6146,18 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6092,15 +6168,18 @@
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6111,15 +6190,18 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6130,15 +6212,18 @@
       <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6149,34 +6234,40 @@
       <c r="D23" s="8">
         <v>4</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D24" s="8">
         <v>4</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6187,15 +6278,18 @@
       <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6206,15 +6300,18 @@
       <c r="D26" s="8">
         <v>4</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6225,15 +6322,18 @@
       <c r="D27" s="8">
         <v>4</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6244,15 +6344,18 @@
       <c r="D28" s="8">
         <v>4</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6263,15 +6366,18 @@
       <c r="D29" s="8">
         <v>4</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6282,15 +6388,18 @@
       <c r="D30" s="8">
         <v>4</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6301,15 +6410,18 @@
       <c r="D31" s="8">
         <v>4</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6320,15 +6432,18 @@
       <c r="D32" s="8">
         <v>4</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6339,15 +6454,18 @@
       <c r="D33" s="8">
         <v>4</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6358,15 +6476,18 @@
       <c r="D34" s="8">
         <v>4</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6377,15 +6498,18 @@
       <c r="D35" s="8">
         <v>4</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6396,15 +6520,18 @@
       <c r="D36" s="8">
         <v>4</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6415,15 +6542,18 @@
       <c r="D37" s="8">
         <v>4</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6434,15 +6564,18 @@
       <c r="D38" s="8">
         <v>4</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6453,15 +6586,18 @@
       <c r="D39" s="8">
         <v>4</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6472,15 +6608,18 @@
       <c r="D40" s="8">
         <v>4</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6491,15 +6630,18 @@
       <c r="D41" s="8">
         <v>4</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6510,15 +6652,18 @@
       <c r="D42" s="8">
         <v>4</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6529,15 +6674,18 @@
       <c r="D43" s="8">
         <v>4</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6548,15 +6696,18 @@
       <c r="D44" s="8">
         <v>4</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6567,15 +6718,18 @@
       <c r="D45" s="8">
         <v>4</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6586,15 +6740,18 @@
       <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6605,15 +6762,18 @@
       <c r="D47" s="8">
         <v>4</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6624,15 +6784,18 @@
       <c r="D48" s="8">
         <v>4</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6643,15 +6806,18 @@
       <c r="D49" s="8">
         <v>4</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6662,15 +6828,18 @@
       <c r="D50" s="11">
         <v>4</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6681,15 +6850,18 @@
       <c r="D51" s="11">
         <v>4</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>866</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>867</v>
-      </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6700,17 +6872,20 @@
       <c r="D52" s="19">
         <v>4</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="F52" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="G52" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="H52" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="22">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6721,17 +6896,20 @@
       <c r="D53" s="8">
         <v>4</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="H53" s="23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B54" s="22">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6742,17 +6920,20 @@
       <c r="D54" s="8">
         <v>4</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B55" s="22">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6763,17 +6944,20 @@
       <c r="D55" s="8">
         <v>4</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="H55" s="23" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B56" s="22">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6784,24 +6968,27 @@
       <c r="D56" s="8">
         <v>4</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="H56" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>463</v>
       </c>
-      <c r="K56">
-        <f>HEX2DEC(J56)</f>
+      <c r="L56">
+        <f>HEX2DEC(K56)</f>
         <v>35570704</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B57" s="22">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6812,17 +6999,20 @@
       <c r="D57" s="8">
         <v>4</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="H57" s="23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B58" s="22">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6833,44 +7023,47 @@
       <c r="D58" s="8">
         <v>4</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>343</v>
+      <c r="E58" s="8" t="s">
+        <v>875</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>35570704</v>
       </c>
-      <c r="K58" t="str">
-        <f>DEC2HEX(J58,8)</f>
+      <c r="L58" t="str">
+        <f>DEC2HEX(K58,8)</f>
         <v>021EC410</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>1</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>35570704</v>
       </c>
-      <c r="O58" t="str">
-        <f>DEC2HEX(N58,8)</f>
+      <c r="P58" t="str">
+        <f>DEC2HEX(O58,8)</f>
         <v>021EC410</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>35570708</v>
       </c>
-      <c r="Q58" t="str">
-        <f>DEC2HEX(P58,8)</f>
+      <c r="R58" t="str">
+        <f>DEC2HEX(Q58,8)</f>
         <v>021EC414</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B59" s="22">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6881,45 +7074,48 @@
       <c r="D59" s="8">
         <v>4</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="I59">
+      <c r="H59" s="23"/>
+      <c r="J59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <f>J58+4</f>
+      <c r="K59">
+        <f>K58+4</f>
         <v>35570708</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" ref="K59:K92" si="1">DEC2HEX(J59,8)</f>
+      <c r="L59" t="str">
+        <f t="shared" ref="L59:L92" si="1">DEC2HEX(K59,8)</f>
         <v>021EC414</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2</v>
       </c>
-      <c r="N59">
-        <f>N58+140</f>
+      <c r="O59">
+        <f>O58+140</f>
         <v>35570844</v>
       </c>
-      <c r="O59" t="str">
-        <f>DEC2HEX(N59,8)</f>
+      <c r="P59" t="str">
+        <f>DEC2HEX(O59,8)</f>
         <v>021EC49C</v>
       </c>
-      <c r="P59">
-        <f>P58+140</f>
+      <c r="Q59">
+        <f>Q58+140</f>
         <v>35570848</v>
       </c>
-      <c r="Q59" t="str">
-        <f>DEC2HEX(P59,8)</f>
+      <c r="R59" t="str">
+        <f>DEC2HEX(Q59,8)</f>
         <v>021EC4A0</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B60" s="22">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6930,45 +7126,48 @@
       <c r="D60" s="8">
         <v>4</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2</v>
       </c>
-      <c r="J60">
-        <f t="shared" ref="J60:J77" si="2">J59+4</f>
+      <c r="K60">
+        <f t="shared" ref="K60:K77" si="2">K59+4</f>
         <v>35570712</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="1"/>
         <v>021EC418</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <f t="shared" ref="N60:P73" si="3">N59+140</f>
+      <c r="O60">
+        <f t="shared" ref="O60:Q73" si="3">O59+140</f>
         <v>35570984</v>
       </c>
-      <c r="O60" t="str">
-        <f t="shared" ref="O60:O73" si="4">DEC2HEX(N60,8)</f>
+      <c r="P60" t="str">
+        <f t="shared" ref="P60:P73" si="4">DEC2HEX(O60,8)</f>
         <v>021EC528</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <f t="shared" si="3"/>
         <v>35570988</v>
       </c>
-      <c r="Q60" t="str">
-        <f t="shared" ref="Q60:Q73" si="5">DEC2HEX(P60,8)</f>
+      <c r="R60" t="str">
+        <f t="shared" ref="R60:R73" si="5">DEC2HEX(Q60,8)</f>
         <v>021EC52C</v>
       </c>
     </row>
-    <row r="61" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="24">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6979,43 +7178,46 @@
       <c r="D61" s="26">
         <v>4</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="F61" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
-      <c r="I61">
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="J61">
         <v>3</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f t="shared" si="2"/>
         <v>35570716</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="1"/>
         <v>021EC41C</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>4</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <f t="shared" si="3"/>
         <v>35571124</v>
       </c>
-      <c r="O61" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="4"/>
         <v>021EC5B4</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <f t="shared" si="3"/>
         <v>35571128</v>
       </c>
-      <c r="Q61" t="str">
+      <c r="R61" t="str">
         <f t="shared" si="5"/>
         <v>021EC5B8</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -7026,47 +7228,50 @@
       <c r="D62" s="19">
         <v>4</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="F62" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="G62" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="H62" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>4</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f t="shared" si="2"/>
         <v>35570720</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="1"/>
         <v>021EC420</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>5</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <f t="shared" si="3"/>
         <v>35571264</v>
       </c>
-      <c r="O62" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="4"/>
         <v>021EC640</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <f t="shared" si="3"/>
         <v>35571268</v>
       </c>
-      <c r="Q62" t="str">
+      <c r="R62" t="str">
         <f t="shared" si="5"/>
         <v>021EC644</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B63" s="22">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -7077,47 +7282,50 @@
       <c r="D63" s="8">
         <v>4</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="H63" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="2"/>
         <v>35570724</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="1"/>
         <v>021EC424</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>6</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <f t="shared" si="3"/>
         <v>35571404</v>
       </c>
-      <c r="O63" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="4"/>
         <v>021EC6CC</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <f t="shared" si="3"/>
         <v>35571408</v>
       </c>
-      <c r="Q63" t="str">
+      <c r="R63" t="str">
         <f t="shared" si="5"/>
         <v>021EC6D0</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B64" s="22">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7128,47 +7336,50 @@
       <c r="D64" s="8">
         <v>4</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="H64" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>6</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="2"/>
         <v>35570728</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="1"/>
         <v>021EC428</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>7</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <f t="shared" si="3"/>
         <v>35571544</v>
       </c>
-      <c r="O64" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="4"/>
         <v>021EC758</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <f t="shared" si="3"/>
         <v>35571548</v>
       </c>
-      <c r="Q64" t="str">
+      <c r="R64" t="str">
         <f t="shared" si="5"/>
         <v>021EC75C</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B65" s="22">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -7179,47 +7390,50 @@
       <c r="D65" s="8">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="H65" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>7</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="2"/>
         <v>35570732</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="1"/>
         <v>021EC42C</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>8</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <f t="shared" si="3"/>
         <v>35571684</v>
       </c>
-      <c r="O65" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="4"/>
         <v>021EC7E4</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <f t="shared" si="3"/>
         <v>35571688</v>
       </c>
-      <c r="Q65" t="str">
+      <c r="R65" t="str">
         <f t="shared" si="5"/>
         <v>021EC7E8</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B66" s="22">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -7230,47 +7444,50 @@
       <c r="D66" s="8">
         <v>4</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="H66" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>8</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f t="shared" si="2"/>
         <v>35570736</v>
       </c>
-      <c r="K66" t="str">
+      <c r="L66" t="str">
         <f t="shared" si="1"/>
         <v>021EC430</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>9</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <f t="shared" si="3"/>
         <v>35571824</v>
       </c>
-      <c r="O66" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="4"/>
         <v>021EC870</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <f t="shared" si="3"/>
         <v>35571828</v>
       </c>
-      <c r="Q66" t="str">
+      <c r="R66" t="str">
         <f t="shared" si="5"/>
         <v>021EC874</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B67" s="22">
         <f t="shared" ref="B67:B130" si="6">ROW()-2</f>
         <v>65</v>
@@ -7281,47 +7498,50 @@
       <c r="D67" s="8">
         <v>4</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="H67" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>9</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f t="shared" si="2"/>
         <v>35570740</v>
       </c>
-      <c r="K67" t="str">
+      <c r="L67" t="str">
         <f t="shared" si="1"/>
         <v>021EC434</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>10</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <f t="shared" si="3"/>
         <v>35571964</v>
       </c>
-      <c r="O67" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="4"/>
         <v>021EC8FC</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <f t="shared" si="3"/>
         <v>35571968</v>
       </c>
-      <c r="Q67" t="str">
+      <c r="R67" t="str">
         <f t="shared" si="5"/>
         <v>021EC900</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B68" s="22">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -7332,47 +7552,50 @@
       <c r="D68" s="8">
         <v>4</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>343</v>
+      <c r="E68" s="8" t="s">
+        <v>874</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H68" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>10</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="2"/>
         <v>35570744</v>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="1"/>
         <v>021EC438</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>11</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <f t="shared" si="3"/>
         <v>35572104</v>
       </c>
-      <c r="O68" t="str">
+      <c r="P68" t="str">
         <f t="shared" si="4"/>
         <v>021EC988</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <f t="shared" si="3"/>
         <v>35572108</v>
       </c>
-      <c r="Q68" t="str">
+      <c r="R68" t="str">
         <f t="shared" si="5"/>
         <v>021EC98C</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B69" s="22">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -7383,45 +7606,48 @@
       <c r="D69" s="8">
         <v>4</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G69" s="23"/>
-      <c r="I69">
+      <c r="H69" s="23"/>
+      <c r="J69">
         <v>11</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f t="shared" si="2"/>
         <v>35570748</v>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="1"/>
         <v>021EC43C</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>12</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <f t="shared" si="3"/>
         <v>35572244</v>
       </c>
-      <c r="O69" t="str">
+      <c r="P69" t="str">
         <f t="shared" si="4"/>
         <v>021ECA14</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <f t="shared" si="3"/>
         <v>35572248</v>
       </c>
-      <c r="Q69" t="str">
+      <c r="R69" t="str">
         <f t="shared" si="5"/>
         <v>021ECA18</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B70" s="22">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -7432,45 +7658,48 @@
       <c r="D70" s="8">
         <v>4</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>12</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="2"/>
         <v>35570752</v>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="1"/>
         <v>021EC440</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>13</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <f t="shared" si="3"/>
         <v>35572384</v>
       </c>
-      <c r="O70" t="str">
+      <c r="P70" t="str">
         <f t="shared" si="4"/>
         <v>021ECAA0</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <f t="shared" si="3"/>
         <v>35572388</v>
       </c>
-      <c r="Q70" t="str">
+      <c r="R70" t="str">
         <f t="shared" si="5"/>
         <v>021ECAA4</v>
       </c>
     </row>
-    <row r="71" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B71" s="24">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -7481,43 +7710,46 @@
       <c r="D71" s="26">
         <v>4</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="26" t="s">
+        <v>874</v>
+      </c>
+      <c r="F71" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
-      <c r="I71">
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="J71">
         <v>13</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f t="shared" si="2"/>
         <v>35570756</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="1"/>
         <v>021EC444</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>14</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <f t="shared" si="3"/>
         <v>35572524</v>
       </c>
-      <c r="O71" t="str">
+      <c r="P71" t="str">
         <f t="shared" si="4"/>
         <v>021ECB2C</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <f t="shared" si="3"/>
         <v>35572528</v>
       </c>
-      <c r="Q71" t="str">
+      <c r="R71" t="str">
         <f t="shared" si="5"/>
         <v>021ECB30</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B72" s="17">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -7528,45 +7760,48 @@
       <c r="D72" s="19">
         <v>4</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="G72" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="G72" s="21"/>
-      <c r="I72">
+      <c r="H72" s="21"/>
+      <c r="J72">
         <v>14</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <f t="shared" si="2"/>
         <v>35570760</v>
       </c>
-      <c r="K72" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="1"/>
         <v>021EC448</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>15</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <f t="shared" si="3"/>
         <v>35572664</v>
       </c>
-      <c r="O72" t="str">
+      <c r="P72" t="str">
         <f t="shared" si="4"/>
         <v>021ECBB8</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <f t="shared" si="3"/>
         <v>35572668</v>
       </c>
-      <c r="Q72" t="str">
+      <c r="R72" t="str">
         <f t="shared" si="5"/>
         <v>021ECBBC</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B73" s="22">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -7577,45 +7812,48 @@
       <c r="D73" s="8">
         <v>4</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G73" s="23"/>
-      <c r="I73">
+      <c r="H73" s="23"/>
+      <c r="J73">
         <v>15</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="2"/>
         <v>35570764</v>
       </c>
-      <c r="K73" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="1"/>
         <v>021EC44C</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>16</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <f t="shared" si="3"/>
         <v>35572804</v>
       </c>
-      <c r="O73" t="str">
+      <c r="P73" t="str">
         <f t="shared" si="4"/>
         <v>021ECC44</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <f t="shared" si="3"/>
         <v>35572808</v>
       </c>
-      <c r="Q73" t="str">
+      <c r="R73" t="str">
         <f t="shared" si="5"/>
         <v>021ECC48</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B74" s="22">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -7626,26 +7864,29 @@
       <c r="D74" s="8">
         <v>4</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G74" s="23"/>
-      <c r="I74">
+      <c r="H74" s="23"/>
+      <c r="J74">
         <v>16</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f t="shared" si="2"/>
         <v>35570768</v>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="1"/>
         <v>021EC450</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B75" s="22">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -7656,26 +7897,29 @@
       <c r="D75" s="8">
         <v>4</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G75" s="23"/>
-      <c r="I75">
+      <c r="H75" s="23"/>
+      <c r="J75">
         <v>17</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f t="shared" si="2"/>
         <v>35570772</v>
       </c>
-      <c r="K75" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="1"/>
         <v>021EC454</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B76" s="22">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -7686,26 +7930,29 @@
       <c r="D76" s="8">
         <v>4</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>872</v>
+      <c r="E76" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="G76" s="23"/>
-      <c r="I76">
+      <c r="G76" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="H76" s="23"/>
+      <c r="J76">
         <v>18</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <f t="shared" si="2"/>
         <v>35570776</v>
       </c>
-      <c r="K76" t="str">
+      <c r="L76" t="str">
         <f t="shared" si="1"/>
         <v>021EC458</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B77" s="22">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -7716,26 +7963,29 @@
       <c r="D77" s="8">
         <v>4</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>873</v>
+      <c r="E77" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="G77" s="23"/>
-      <c r="I77">
+        <v>872</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="H77" s="23"/>
+      <c r="J77">
         <v>19</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <f t="shared" si="2"/>
         <v>35570780</v>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="1"/>
         <v>021EC45C</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B78" s="22">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -7746,26 +7996,29 @@
       <c r="D78" s="8">
         <v>4</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="I78">
+      <c r="H78" s="23"/>
+      <c r="J78">
         <v>20</v>
       </c>
-      <c r="J78">
-        <f t="shared" ref="J78:J92" si="7">J77+4</f>
+      <c r="K78">
+        <f t="shared" ref="K78:K92" si="7">K77+4</f>
         <v>35570784</v>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="1"/>
         <v>021EC460</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B79" s="22">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -7776,26 +8029,29 @@
       <c r="D79" s="8">
         <v>4</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G79" s="23"/>
-      <c r="I79">
+      <c r="H79" s="23"/>
+      <c r="J79">
         <v>21</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <f t="shared" si="7"/>
         <v>35570788</v>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="1"/>
         <v>021EC464</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B80" s="22">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -7806,26 +8062,29 @@
       <c r="D80" s="8">
         <v>4</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G80" s="23"/>
-      <c r="I80">
+      <c r="H80" s="23"/>
+      <c r="J80">
         <v>22</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <f t="shared" si="7"/>
         <v>35570792</v>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="1"/>
         <v>021EC468</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B81" s="22">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -7836,24 +8095,27 @@
       <c r="D81" s="8">
         <v>4</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="23"/>
-      <c r="I81">
+      <c r="G81" s="2"/>
+      <c r="H81" s="23"/>
+      <c r="J81">
         <v>23</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <f t="shared" si="7"/>
         <v>35570796</v>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="1"/>
         <v>021EC46C</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B82" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -7864,24 +8126,27 @@
       <c r="D82" s="8">
         <v>4</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="23"/>
-      <c r="I82">
+      <c r="G82" s="2"/>
+      <c r="H82" s="23"/>
+      <c r="J82">
         <v>24</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <f t="shared" si="7"/>
         <v>35570800</v>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="1"/>
         <v>021EC470</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B83" s="22">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -7892,24 +8157,27 @@
       <c r="D83" s="8">
         <v>4</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="23"/>
-      <c r="I83">
+      <c r="G83" s="2"/>
+      <c r="H83" s="23"/>
+      <c r="J83">
         <v>25</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <f t="shared" si="7"/>
         <v>35570804</v>
       </c>
-      <c r="K83" t="str">
+      <c r="L83" t="str">
         <f t="shared" si="1"/>
         <v>021EC474</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B84" s="22">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -7920,26 +8188,29 @@
       <c r="D84" s="8">
         <v>4</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="I84">
+      <c r="H84" s="23"/>
+      <c r="J84">
         <v>26</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <f t="shared" si="7"/>
         <v>35570808</v>
       </c>
-      <c r="K84" t="str">
+      <c r="L84" t="str">
         <f t="shared" si="1"/>
         <v>021EC478</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B85" s="22">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -7950,24 +8221,27 @@
       <c r="D85" s="8">
         <v>4</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="23"/>
-      <c r="I85">
+      <c r="G85" s="2"/>
+      <c r="H85" s="23"/>
+      <c r="J85">
         <v>27</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <f t="shared" si="7"/>
         <v>35570812</v>
       </c>
-      <c r="K85" t="str">
+      <c r="L85" t="str">
         <f t="shared" si="1"/>
         <v>021EC47C</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B86" s="22">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -7978,26 +8252,29 @@
       <c r="D86" s="8">
         <v>4</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G86" s="23"/>
-      <c r="I86">
+      <c r="H86" s="23"/>
+      <c r="J86">
         <v>28</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <f t="shared" si="7"/>
         <v>35570816</v>
       </c>
-      <c r="K86" t="str">
+      <c r="L86" t="str">
         <f t="shared" si="1"/>
         <v>021EC480</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B87" s="22">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -8008,26 +8285,29 @@
       <c r="D87" s="8">
         <v>4</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G87" s="23"/>
-      <c r="I87">
+      <c r="H87" s="23"/>
+      <c r="J87">
         <v>29</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <f t="shared" si="7"/>
         <v>35570820</v>
       </c>
-      <c r="K87" t="str">
+      <c r="L87" t="str">
         <f t="shared" si="1"/>
         <v>021EC484</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B88" s="22">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -8038,52 +8318,58 @@
       <c r="D88" s="8">
         <v>4</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="23"/>
-      <c r="I88">
+      <c r="G88" s="2"/>
+      <c r="H88" s="23"/>
+      <c r="J88">
         <v>30</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <f t="shared" si="7"/>
         <v>35570824</v>
       </c>
-      <c r="K88" t="str">
+      <c r="L88" t="str">
         <f t="shared" si="1"/>
         <v>021EC488</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B89" s="22">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D89" s="8">
         <v>4</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="23"/>
-      <c r="I89">
+      <c r="G89" s="2"/>
+      <c r="H89" s="23"/>
+      <c r="J89">
         <v>31</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <f t="shared" si="7"/>
         <v>35570828</v>
       </c>
-      <c r="K89" t="str">
+      <c r="L89" t="str">
         <f t="shared" si="1"/>
         <v>021EC48C</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B90" s="22">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -8094,24 +8380,27 @@
       <c r="D90" s="8">
         <v>4</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="23"/>
-      <c r="I90">
+      <c r="G90" s="2"/>
+      <c r="H90" s="23"/>
+      <c r="J90">
         <v>32</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <f t="shared" si="7"/>
         <v>35570832</v>
       </c>
-      <c r="K90" t="str">
+      <c r="L90" t="str">
         <f t="shared" si="1"/>
         <v>021EC490</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B91" s="22">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -8122,24 +8411,27 @@
       <c r="D91" s="8">
         <v>4</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="23"/>
-      <c r="I91">
+      <c r="G91" s="2"/>
+      <c r="H91" s="23"/>
+      <c r="J91">
         <v>33</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <f t="shared" si="7"/>
         <v>35570836</v>
       </c>
-      <c r="K91" t="str">
+      <c r="L91" t="str">
         <f t="shared" si="1"/>
         <v>021EC494</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B92" s="22">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -8150,26 +8442,29 @@
       <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G92" s="23"/>
-      <c r="I92">
+      <c r="G92" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H92" s="23"/>
+      <c r="J92">
         <v>34</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <f t="shared" si="7"/>
         <v>35570840</v>
       </c>
-      <c r="K92" t="str">
+      <c r="L92" t="str">
         <f t="shared" si="1"/>
         <v>021EC498</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B93" s="22">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -8180,35 +8475,41 @@
       <c r="D93" s="8">
         <v>4</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G93" s="23"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B94" s="22">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D94" s="8">
         <v>4</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H94" s="23"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B95" s="22">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -8219,14 +8520,17 @@
       <c r="D95" s="8">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G95" s="2"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B96" s="22">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -8237,14 +8541,17 @@
       <c r="D96" s="8">
         <v>4</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G96" s="2"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B97" s="22">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -8255,14 +8562,17 @@
       <c r="D97" s="8">
         <v>4</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="29"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G97" s="2"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="29"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B98" s="22">
         <f t="shared" si="6"/>
         <v>96</v>
@@ -8273,14 +8583,17 @@
       <c r="D98" s="8">
         <v>4</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="29"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G98" s="2"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="29"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B99" s="22">
         <f t="shared" si="6"/>
         <v>97</v>
@@ -8289,18 +8602,21 @@
         <v>443</v>
       </c>
       <c r="D99" s="8">
-        <v>2</v>
-      </c>
-      <c r="E99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="29"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H99" s="23"/>
+      <c r="I99" s="29"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B100" s="22">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -8311,14 +8627,15 @@
       <c r="D100" s="8">
         <v>4</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="8"/>
+      <c r="F100" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="29"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G100" s="2"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="29"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B101" s="22">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -8329,13 +8646,14 @@
       <c r="D101" s="8">
         <v>4</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="8"/>
+      <c r="F101" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="23"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G101" s="2"/>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B102" s="22">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -8346,13 +8664,14 @@
       <c r="D102" s="8">
         <v>4</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="8"/>
+      <c r="F102" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="23"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G102" s="2"/>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B103" s="22">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -8363,15 +8682,16 @@
       <c r="D103" s="8">
         <v>4</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="8"/>
+      <c r="F103" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G103" s="23"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G103" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B104" s="22">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -8382,15 +8702,16 @@
       <c r="D104" s="8">
         <v>4</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="8"/>
+      <c r="F104" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G104" s="23"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G104" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B105" s="22">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -8401,15 +8722,18 @@
       <c r="D105" s="8">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G105" s="23"/>
-    </row>
-    <row r="106" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G105" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B106" s="24">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -8420,1377 +8744,1504 @@
       <c r="D106" s="26">
         <v>4</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="F106" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="F106" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="G106" s="28"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G106" s="27" t="s">
+        <v>878</v>
+      </c>
+      <c r="H106" s="28"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B107" s="13">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
-      <c r="E107" s="16"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B108" s="5">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B109" s="5">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B110" s="5">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="8"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B111" s="5">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="8"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B112" s="5">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B113" s="5">
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="8"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B114" s="5">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="8"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B115" s="5">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B116" s="5">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="8"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B117" s="5">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="8"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B118" s="5">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="8"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B119" s="5">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="8"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B120" s="5">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="8"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B121" s="5">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="8"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B122" s="5">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="8"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B123" s="5">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="8"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B124" s="5">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B125" s="5">
         <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="8"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B126" s="5">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B127" s="5">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="8"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B128" s="5">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B129" s="5">
         <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="8"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B130" s="5">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="8"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B131" s="5">
         <f t="shared" ref="B131:B194" si="8">ROW()-2</f>
         <v>129</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B132" s="5">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B133" s="5">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B134" s="5">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="8"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B135" s="5">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="8"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B136" s="5">
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="8"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B137" s="5">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B138" s="5">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B139" s="5">
         <f t="shared" si="8"/>
         <v>137</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B140" s="5">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B141" s="5">
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="8"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B142" s="5">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="8"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B143" s="5">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="8"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B144" s="5">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="8"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B145" s="5">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="2"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B146" s="5">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="8"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B147" s="5">
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B148" s="5">
         <f t="shared" si="8"/>
         <v>146</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="8"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B149" s="5">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="8"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B150" s="5">
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="8"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B151" s="5">
         <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="2"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B152" s="5">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="8"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B153" s="5">
         <f t="shared" si="8"/>
         <v>151</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="2"/>
+      <c r="E153" s="8"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B154" s="5">
         <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="2"/>
+      <c r="E154" s="8"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B155" s="5">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="8"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B156" s="5">
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B157" s="5">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="8"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B158" s="5">
         <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="8"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B159" s="5">
         <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="8"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B160" s="5">
         <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B161" s="5">
         <f t="shared" si="8"/>
         <v>159</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="8"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B162" s="5">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B163" s="5">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="2"/>
+      <c r="E163" s="8"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B164" s="5">
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="2"/>
+      <c r="E164" s="8"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B165" s="5">
         <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="2"/>
+      <c r="E165" s="8"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B166" s="5">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="2"/>
+      <c r="E166" s="8"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B167" s="5">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="8"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B168" s="5">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="2"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B169" s="5">
         <f t="shared" si="8"/>
         <v>167</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="8"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B170" s="5">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="2"/>
+      <c r="E170" s="8"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B171" s="5">
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="8"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B172" s="5">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="2"/>
+      <c r="E172" s="8"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B173" s="5">
         <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="8"/>
-      <c r="E173" s="2"/>
+      <c r="E173" s="8"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B174" s="5">
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="2"/>
+      <c r="E174" s="8"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B175" s="5">
         <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="8"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B176" s="5">
         <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="8"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B177" s="5">
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="8"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B178" s="5">
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B179" s="5">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="8"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B180" s="5">
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="2"/>
+      <c r="E180" s="8"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B181" s="5">
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="2"/>
+      <c r="E181" s="8"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B182" s="5">
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="2"/>
+      <c r="E182" s="8"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B183" s="5">
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="8"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B184" s="5">
         <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="2"/>
+      <c r="E184" s="8"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B185" s="5">
         <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="2"/>
+      <c r="E185" s="8"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B186" s="5">
         <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="2"/>
+      <c r="E186" s="8"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B187" s="5">
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="2"/>
+      <c r="E187" s="8"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B188" s="5">
         <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="2"/>
+      <c r="E188" s="8"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B189" s="5">
         <f t="shared" si="8"/>
         <v>187</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="8"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B190" s="5">
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="8"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B191" s="5">
         <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="2"/>
+      <c r="E191" s="8"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B192" s="5">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="2"/>
+      <c r="E192" s="8"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B193" s="5">
         <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="8"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B194" s="5">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="2"/>
+      <c r="E194" s="8"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B195" s="5">
         <f t="shared" ref="B195:B230" si="9">ROW()-2</f>
         <v>193</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="2"/>
+      <c r="E195" s="8"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B196" s="5">
         <f t="shared" si="9"/>
         <v>194</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="8"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B197" s="5">
         <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="2"/>
+      <c r="E197" s="8"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B198" s="5">
         <f t="shared" si="9"/>
         <v>196</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="8"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B199" s="5">
         <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="2"/>
+      <c r="E199" s="8"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B200" s="5">
         <f t="shared" si="9"/>
         <v>198</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="8"/>
-      <c r="E200" s="2"/>
+      <c r="E200" s="8"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B201" s="5">
         <f t="shared" si="9"/>
         <v>199</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="2"/>
+      <c r="E201" s="8"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B202" s="5">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="2"/>
+      <c r="E202" s="8"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B203" s="5">
         <f t="shared" si="9"/>
         <v>201</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="2"/>
+      <c r="E203" s="8"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B204" s="5">
         <f t="shared" si="9"/>
         <v>202</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="2"/>
+      <c r="E204" s="8"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B205" s="5">
         <f t="shared" si="9"/>
         <v>203</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="2"/>
+      <c r="E205" s="8"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B206" s="5">
         <f t="shared" si="9"/>
         <v>204</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="2"/>
+      <c r="E206" s="8"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B207" s="5">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="2"/>
+      <c r="E207" s="8"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B208" s="5">
         <f t="shared" si="9"/>
         <v>206</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="2"/>
+      <c r="E208" s="8"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B209" s="5">
         <f t="shared" si="9"/>
         <v>207</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="8"/>
-      <c r="E209" s="2"/>
+      <c r="E209" s="8"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B210" s="5">
         <f t="shared" si="9"/>
         <v>208</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="2"/>
+      <c r="E210" s="8"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B211" s="5">
         <f t="shared" si="9"/>
         <v>209</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="2"/>
+      <c r="E211" s="8"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B212" s="5">
         <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="2"/>
+      <c r="E212" s="8"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B213" s="5">
         <f t="shared" si="9"/>
         <v>211</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="2"/>
+      <c r="E213" s="8"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B214" s="5">
         <f t="shared" si="9"/>
         <v>212</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="8"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B215" s="5">
         <f t="shared" si="9"/>
         <v>213</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="2"/>
+      <c r="E215" s="8"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B216" s="5">
         <f t="shared" si="9"/>
         <v>214</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="2"/>
+      <c r="E216" s="8"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B217" s="5">
         <f t="shared" si="9"/>
         <v>215</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="2"/>
+      <c r="E217" s="8"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B218" s="5">
         <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="8"/>
-      <c r="E218" s="2"/>
+      <c r="E218" s="8"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B219" s="5">
         <f t="shared" si="9"/>
         <v>217</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="2"/>
+      <c r="E219" s="8"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B220" s="5">
         <f t="shared" si="9"/>
         <v>218</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="2"/>
+      <c r="E220" s="8"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B221" s="5">
         <f t="shared" si="9"/>
         <v>219</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="2"/>
+      <c r="E221" s="8"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B222" s="5">
         <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="2"/>
+      <c r="E222" s="8"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B223" s="5">
         <f t="shared" si="9"/>
         <v>221</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="2"/>
+      <c r="E223" s="8"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B224" s="5">
         <f t="shared" si="9"/>
         <v>222</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="2"/>
+      <c r="E224" s="8"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B225" s="5">
         <f t="shared" si="9"/>
         <v>223</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="2"/>
+      <c r="E225" s="8"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B226" s="5">
         <f t="shared" si="9"/>
         <v>224</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="2"/>
+      <c r="E226" s="8"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B227" s="5">
         <f t="shared" si="9"/>
         <v>225</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="8"/>
-      <c r="E227" s="2"/>
+      <c r="E227" s="8"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B228" s="5">
         <f t="shared" si="9"/>
         <v>226</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="2"/>
+      <c r="E228" s="8"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B229" s="5">
         <f t="shared" si="9"/>
         <v>227</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="2"/>
+      <c r="E229" s="8"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B230" s="5">
         <f t="shared" si="9"/>
         <v>228</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="2"/>
+      <c r="E230" s="8"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9814,563 +10265,563 @@
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" t="s">
         <v>477</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>478</v>
-      </c>
-      <c r="F4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" t="s">
         <v>480</v>
-      </c>
-      <c r="E5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" t="s">
         <v>482</v>
-      </c>
-      <c r="E6" t="s">
-        <v>480</v>
-      </c>
-      <c r="F6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" t="s">
         <v>484</v>
-      </c>
-      <c r="E7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" t="s">
         <v>486</v>
-      </c>
-      <c r="E8" t="s">
-        <v>484</v>
-      </c>
-      <c r="F8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" t="s">
         <v>488</v>
-      </c>
-      <c r="E9" t="s">
-        <v>486</v>
-      </c>
-      <c r="F9" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" t="s">
         <v>490</v>
-      </c>
-      <c r="E10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F10" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" t="s">
         <v>492</v>
-      </c>
-      <c r="E11" t="s">
-        <v>490</v>
-      </c>
-      <c r="F11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F12" t="s">
         <v>494</v>
-      </c>
-      <c r="E12" t="s">
-        <v>492</v>
-      </c>
-      <c r="F12" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E13" t="s">
+        <v>493</v>
+      </c>
+      <c r="F13" t="s">
         <v>496</v>
-      </c>
-      <c r="E13" t="s">
-        <v>494</v>
-      </c>
-      <c r="F13" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" t="s">
         <v>498</v>
-      </c>
-      <c r="E14" t="s">
-        <v>496</v>
-      </c>
-      <c r="F14" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" t="s">
+        <v>497</v>
+      </c>
+      <c r="F15" t="s">
         <v>500</v>
-      </c>
-      <c r="E15" t="s">
-        <v>498</v>
-      </c>
-      <c r="F15" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" t="s">
         <v>502</v>
-      </c>
-      <c r="E16" t="s">
-        <v>500</v>
-      </c>
-      <c r="F16" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
+        <v>503</v>
+      </c>
+      <c r="E17" t="s">
+        <v>501</v>
+      </c>
+      <c r="F17" t="s">
         <v>504</v>
-      </c>
-      <c r="E17" t="s">
-        <v>502</v>
-      </c>
-      <c r="F17" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F18" t="s">
         <v>506</v>
-      </c>
-      <c r="E18" t="s">
-        <v>504</v>
-      </c>
-      <c r="F18" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
+        <v>507</v>
+      </c>
+      <c r="E19" t="s">
+        <v>505</v>
+      </c>
+      <c r="F19" t="s">
         <v>508</v>
-      </c>
-      <c r="E19" t="s">
-        <v>506</v>
-      </c>
-      <c r="F19" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" t="s">
         <v>510</v>
-      </c>
-      <c r="E20" t="s">
-        <v>508</v>
-      </c>
-      <c r="F20" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E21" t="s">
+        <v>509</v>
+      </c>
+      <c r="F21" t="s">
         <v>512</v>
-      </c>
-      <c r="E21" t="s">
-        <v>510</v>
-      </c>
-      <c r="F21" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" t="s">
+        <v>511</v>
+      </c>
+      <c r="F22" t="s">
         <v>514</v>
-      </c>
-      <c r="E22" t="s">
-        <v>512</v>
-      </c>
-      <c r="F22" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" t="s">
         <v>516</v>
-      </c>
-      <c r="E23" t="s">
-        <v>514</v>
-      </c>
-      <c r="F23" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
+        <v>517</v>
+      </c>
+      <c r="E24" t="s">
+        <v>515</v>
+      </c>
+      <c r="F24" t="s">
         <v>518</v>
-      </c>
-      <c r="E24" t="s">
-        <v>516</v>
-      </c>
-      <c r="F24" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
+        <v>519</v>
+      </c>
+      <c r="E25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" t="s">
         <v>520</v>
-      </c>
-      <c r="E25" t="s">
-        <v>518</v>
-      </c>
-      <c r="F25" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
+        <v>521</v>
+      </c>
+      <c r="E26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" t="s">
         <v>522</v>
-      </c>
-      <c r="E26" t="s">
-        <v>520</v>
-      </c>
-      <c r="F26" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
+        <v>523</v>
+      </c>
+      <c r="E27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F27" t="s">
         <v>524</v>
-      </c>
-      <c r="E27" t="s">
-        <v>522</v>
-      </c>
-      <c r="F27" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
+        <v>525</v>
+      </c>
+      <c r="E28" t="s">
+        <v>523</v>
+      </c>
+      <c r="F28" t="s">
         <v>526</v>
-      </c>
-      <c r="E28" t="s">
-        <v>524</v>
-      </c>
-      <c r="F28" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E29" t="s">
+        <v>525</v>
+      </c>
+      <c r="F29" t="s">
         <v>528</v>
-      </c>
-      <c r="E29" t="s">
-        <v>526</v>
-      </c>
-      <c r="F29" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
+        <v>529</v>
+      </c>
+      <c r="E30" t="s">
+        <v>527</v>
+      </c>
+      <c r="F30" t="s">
         <v>530</v>
-      </c>
-      <c r="E30" t="s">
-        <v>528</v>
-      </c>
-      <c r="F30" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
+        <v>531</v>
+      </c>
+      <c r="E31" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31" t="s">
         <v>532</v>
-      </c>
-      <c r="E31" t="s">
-        <v>530</v>
-      </c>
-      <c r="F31" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
+        <v>533</v>
+      </c>
+      <c r="E32" t="s">
+        <v>531</v>
+      </c>
+      <c r="F32" t="s">
         <v>534</v>
-      </c>
-      <c r="E32" t="s">
-        <v>532</v>
-      </c>
-      <c r="F32" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
+        <v>535</v>
+      </c>
+      <c r="E33" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" t="s">
         <v>536</v>
-      </c>
-      <c r="E33" t="s">
-        <v>534</v>
-      </c>
-      <c r="F33" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
+        <v>537</v>
+      </c>
+      <c r="E34" t="s">
+        <v>535</v>
+      </c>
+      <c r="F34" t="s">
         <v>538</v>
-      </c>
-      <c r="E34" t="s">
-        <v>536</v>
-      </c>
-      <c r="F34" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" t="s">
+        <v>537</v>
+      </c>
+      <c r="F35" t="s">
         <v>540</v>
-      </c>
-      <c r="E35" t="s">
-        <v>538</v>
-      </c>
-      <c r="F35" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
+        <v>541</v>
+      </c>
+      <c r="E36" t="s">
+        <v>539</v>
+      </c>
+      <c r="F36" t="s">
         <v>542</v>
-      </c>
-      <c r="E36" t="s">
-        <v>540</v>
-      </c>
-      <c r="F36" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
+        <v>543</v>
+      </c>
+      <c r="E37" t="s">
+        <v>541</v>
+      </c>
+      <c r="F37" t="s">
         <v>544</v>
-      </c>
-      <c r="E37" t="s">
-        <v>542</v>
-      </c>
-      <c r="F37" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" t="s">
+        <v>543</v>
+      </c>
+      <c r="F38" t="s">
         <v>546</v>
-      </c>
-      <c r="E38" t="s">
-        <v>544</v>
-      </c>
-      <c r="F38" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E39" t="s">
+        <v>545</v>
+      </c>
+      <c r="F39" t="s">
         <v>548</v>
-      </c>
-      <c r="E39" t="s">
-        <v>546</v>
-      </c>
-      <c r="F39" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
+        <v>549</v>
+      </c>
+      <c r="E40" t="s">
+        <v>547</v>
+      </c>
+      <c r="F40" t="s">
         <v>550</v>
-      </c>
-      <c r="E40" t="s">
-        <v>548</v>
-      </c>
-      <c r="F40" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" t="s">
+        <v>549</v>
+      </c>
+      <c r="F41" t="s">
         <v>552</v>
-      </c>
-      <c r="E41" t="s">
-        <v>550</v>
-      </c>
-      <c r="F41" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
+        <v>553</v>
+      </c>
+      <c r="E42" t="s">
+        <v>551</v>
+      </c>
+      <c r="F42" t="s">
         <v>554</v>
-      </c>
-      <c r="E42" t="s">
-        <v>552</v>
-      </c>
-      <c r="F42" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
+        <v>555</v>
+      </c>
+      <c r="E43" t="s">
+        <v>553</v>
+      </c>
+      <c r="F43" t="s">
         <v>556</v>
-      </c>
-      <c r="E43" t="s">
-        <v>554</v>
-      </c>
-      <c r="F43" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
+        <v>557</v>
+      </c>
+      <c r="E44" t="s">
+        <v>555</v>
+      </c>
+      <c r="F44" t="s">
         <v>558</v>
-      </c>
-      <c r="E44" t="s">
-        <v>556</v>
-      </c>
-      <c r="F44" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
+        <v>559</v>
+      </c>
+      <c r="E45" t="s">
+        <v>557</v>
+      </c>
+      <c r="F45" t="s">
         <v>560</v>
-      </c>
-      <c r="E45" t="s">
-        <v>558</v>
-      </c>
-      <c r="F45" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E46" t="s">
+        <v>559</v>
+      </c>
+      <c r="F46" t="s">
         <v>562</v>
-      </c>
-      <c r="E46" t="s">
-        <v>560</v>
-      </c>
-      <c r="F46" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
+        <v>563</v>
+      </c>
+      <c r="E47" t="s">
+        <v>561</v>
+      </c>
+      <c r="F47" t="s">
         <v>564</v>
-      </c>
-      <c r="E47" t="s">
-        <v>562</v>
-      </c>
-      <c r="F47" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
+        <v>565</v>
+      </c>
+      <c r="E48" t="s">
+        <v>563</v>
+      </c>
+      <c r="F48" t="s">
         <v>566</v>
-      </c>
-      <c r="E48" t="s">
-        <v>564</v>
-      </c>
-      <c r="F48" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" t="s">
+        <v>565</v>
+      </c>
+      <c r="F49" t="s">
         <v>568</v>
-      </c>
-      <c r="E49" t="s">
-        <v>566</v>
-      </c>
-      <c r="F49" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
+        <v>569</v>
+      </c>
+      <c r="E50" t="s">
+        <v>567</v>
+      </c>
+      <c r="F50" t="s">
         <v>570</v>
-      </c>
-      <c r="E50" t="s">
-        <v>568</v>
-      </c>
-      <c r="F50" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
+        <v>571</v>
+      </c>
+      <c r="E51" t="s">
+        <v>569</v>
+      </c>
+      <c r="F51" t="s">
         <v>572</v>
-      </c>
-      <c r="E51" t="s">
-        <v>570</v>
-      </c>
-      <c r="F51" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
+        <v>573</v>
+      </c>
+      <c r="E52" t="s">
+        <v>571</v>
+      </c>
+      <c r="F52" t="s">
         <v>574</v>
-      </c>
-      <c r="E52" t="s">
-        <v>572</v>
-      </c>
-      <c r="F52" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
+        <v>575</v>
+      </c>
+      <c r="E53" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" t="s">
         <v>576</v>
-      </c>
-      <c r="E53" t="s">
-        <v>574</v>
-      </c>
-      <c r="F53" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
+        <v>577</v>
+      </c>
+      <c r="E54" t="s">
+        <v>575</v>
+      </c>
+      <c r="F54" t="s">
         <v>578</v>
-      </c>
-      <c r="E54" t="s">
-        <v>576</v>
-      </c>
-      <c r="F54" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.4">
@@ -10378,1341 +10829,1341 @@
         <v>41962724</v>
       </c>
       <c r="E55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E56">
         <v>41962724</v>
       </c>
       <c r="F56" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
+        <v>582</v>
+      </c>
+      <c r="E57" t="s">
+        <v>580</v>
+      </c>
+      <c r="F57" t="s">
         <v>583</v>
-      </c>
-      <c r="E57" t="s">
-        <v>581</v>
-      </c>
-      <c r="F57" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
+        <v>584</v>
+      </c>
+      <c r="E58" t="s">
+        <v>582</v>
+      </c>
+      <c r="F58" t="s">
         <v>585</v>
-      </c>
-      <c r="E58" t="s">
-        <v>583</v>
-      </c>
-      <c r="F58" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
+        <v>586</v>
+      </c>
+      <c r="E59" t="s">
+        <v>584</v>
+      </c>
+      <c r="F59" t="s">
         <v>587</v>
-      </c>
-      <c r="E59" t="s">
-        <v>585</v>
-      </c>
-      <c r="F59" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D60" t="s">
+        <v>588</v>
+      </c>
+      <c r="E60" t="s">
+        <v>586</v>
+      </c>
+      <c r="F60" t="s">
         <v>589</v>
-      </c>
-      <c r="E60" t="s">
-        <v>587</v>
-      </c>
-      <c r="F60" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
+        <v>590</v>
+      </c>
+      <c r="E61" t="s">
+        <v>588</v>
+      </c>
+      <c r="F61" t="s">
         <v>591</v>
-      </c>
-      <c r="E61" t="s">
-        <v>589</v>
-      </c>
-      <c r="F61" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
+        <v>592</v>
+      </c>
+      <c r="E62" t="s">
+        <v>590</v>
+      </c>
+      <c r="F62" t="s">
         <v>593</v>
-      </c>
-      <c r="E62" t="s">
-        <v>591</v>
-      </c>
-      <c r="F62" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
+        <v>594</v>
+      </c>
+      <c r="E63" t="s">
+        <v>592</v>
+      </c>
+      <c r="F63" t="s">
         <v>595</v>
-      </c>
-      <c r="E63" t="s">
-        <v>593</v>
-      </c>
-      <c r="F63" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E64" t="s">
+        <v>594</v>
+      </c>
+      <c r="F64" t="s">
         <v>597</v>
-      </c>
-      <c r="E64" t="s">
-        <v>595</v>
-      </c>
-      <c r="F64" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
+        <v>598</v>
+      </c>
+      <c r="E65" t="s">
+        <v>596</v>
+      </c>
+      <c r="F65" t="s">
         <v>599</v>
-      </c>
-      <c r="E65" t="s">
-        <v>597</v>
-      </c>
-      <c r="F65" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
+        <v>600</v>
+      </c>
+      <c r="E66" t="s">
+        <v>598</v>
+      </c>
+      <c r="F66" t="s">
         <v>601</v>
-      </c>
-      <c r="E66" t="s">
-        <v>599</v>
-      </c>
-      <c r="F66" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
+        <v>602</v>
+      </c>
+      <c r="E67" t="s">
+        <v>600</v>
+      </c>
+      <c r="F67" t="s">
         <v>603</v>
-      </c>
-      <c r="E67" t="s">
-        <v>601</v>
-      </c>
-      <c r="F67" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
+        <v>604</v>
+      </c>
+      <c r="E68" t="s">
+        <v>602</v>
+      </c>
+      <c r="F68" t="s">
         <v>605</v>
-      </c>
-      <c r="E68" t="s">
-        <v>603</v>
-      </c>
-      <c r="F68" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D69" t="s">
+        <v>606</v>
+      </c>
+      <c r="E69" t="s">
+        <v>604</v>
+      </c>
+      <c r="F69" t="s">
         <v>607</v>
-      </c>
-      <c r="E69" t="s">
-        <v>605</v>
-      </c>
-      <c r="F69" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
+        <v>608</v>
+      </c>
+      <c r="E70" t="s">
+        <v>606</v>
+      </c>
+      <c r="F70" t="s">
         <v>609</v>
-      </c>
-      <c r="E70" t="s">
-        <v>607</v>
-      </c>
-      <c r="F70" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D71" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71" t="s">
+        <v>608</v>
+      </c>
+      <c r="F71" t="s">
         <v>611</v>
-      </c>
-      <c r="E71" t="s">
-        <v>609</v>
-      </c>
-      <c r="F71" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D72" t="s">
+        <v>612</v>
+      </c>
+      <c r="E72" t="s">
+        <v>610</v>
+      </c>
+      <c r="F72" t="s">
         <v>613</v>
-      </c>
-      <c r="E72" t="s">
-        <v>611</v>
-      </c>
-      <c r="F72" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D73" t="s">
+        <v>614</v>
+      </c>
+      <c r="E73" t="s">
+        <v>612</v>
+      </c>
+      <c r="F73" t="s">
         <v>615</v>
-      </c>
-      <c r="E73" t="s">
-        <v>613</v>
-      </c>
-      <c r="F73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D74" t="s">
+        <v>616</v>
+      </c>
+      <c r="E74" t="s">
+        <v>614</v>
+      </c>
+      <c r="F74" t="s">
         <v>617</v>
-      </c>
-      <c r="E74" t="s">
-        <v>615</v>
-      </c>
-      <c r="F74" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D75" t="s">
+        <v>618</v>
+      </c>
+      <c r="E75" t="s">
+        <v>616</v>
+      </c>
+      <c r="F75" t="s">
         <v>619</v>
-      </c>
-      <c r="E75" t="s">
-        <v>617</v>
-      </c>
-      <c r="F75" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D76" t="s">
+        <v>620</v>
+      </c>
+      <c r="E76" t="s">
+        <v>618</v>
+      </c>
+      <c r="F76" t="s">
         <v>621</v>
-      </c>
-      <c r="E76" t="s">
-        <v>619</v>
-      </c>
-      <c r="F76" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
+        <v>622</v>
+      </c>
+      <c r="E77" t="s">
+        <v>620</v>
+      </c>
+      <c r="F77" t="s">
         <v>623</v>
-      </c>
-      <c r="E77" t="s">
-        <v>621</v>
-      </c>
-      <c r="F77" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
+        <v>624</v>
+      </c>
+      <c r="E78" t="s">
+        <v>622</v>
+      </c>
+      <c r="F78" t="s">
         <v>625</v>
-      </c>
-      <c r="E78" t="s">
-        <v>623</v>
-      </c>
-      <c r="F78" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D79" t="s">
+        <v>626</v>
+      </c>
+      <c r="E79" t="s">
+        <v>624</v>
+      </c>
+      <c r="F79" t="s">
         <v>627</v>
-      </c>
-      <c r="E79" t="s">
-        <v>625</v>
-      </c>
-      <c r="F79" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D80" t="s">
+        <v>628</v>
+      </c>
+      <c r="E80" t="s">
+        <v>626</v>
+      </c>
+      <c r="F80" t="s">
         <v>629</v>
-      </c>
-      <c r="E80" t="s">
-        <v>627</v>
-      </c>
-      <c r="F80" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D81" t="s">
+        <v>630</v>
+      </c>
+      <c r="E81" t="s">
+        <v>628</v>
+      </c>
+      <c r="F81" t="s">
         <v>631</v>
-      </c>
-      <c r="E81" t="s">
-        <v>629</v>
-      </c>
-      <c r="F81" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D82" t="s">
+        <v>632</v>
+      </c>
+      <c r="E82" t="s">
+        <v>630</v>
+      </c>
+      <c r="F82" t="s">
         <v>633</v>
-      </c>
-      <c r="E82" t="s">
-        <v>631</v>
-      </c>
-      <c r="F82" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D83" t="s">
+        <v>634</v>
+      </c>
+      <c r="E83" t="s">
+        <v>632</v>
+      </c>
+      <c r="F83" t="s">
         <v>635</v>
-      </c>
-      <c r="E83" t="s">
-        <v>633</v>
-      </c>
-      <c r="F83" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D84" t="s">
+        <v>636</v>
+      </c>
+      <c r="E84" t="s">
+        <v>634</v>
+      </c>
+      <c r="F84" t="s">
         <v>637</v>
-      </c>
-      <c r="E84" t="s">
-        <v>635</v>
-      </c>
-      <c r="F84" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D85" t="s">
+        <v>638</v>
+      </c>
+      <c r="E85" t="s">
+        <v>636</v>
+      </c>
+      <c r="F85" t="s">
         <v>639</v>
-      </c>
-      <c r="E85" t="s">
-        <v>637</v>
-      </c>
-      <c r="F85" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D86" t="s">
+        <v>640</v>
+      </c>
+      <c r="E86" t="s">
+        <v>638</v>
+      </c>
+      <c r="F86" t="s">
         <v>641</v>
-      </c>
-      <c r="E86" t="s">
-        <v>639</v>
-      </c>
-      <c r="F86" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D87" t="s">
+        <v>642</v>
+      </c>
+      <c r="E87" t="s">
+        <v>640</v>
+      </c>
+      <c r="F87" t="s">
         <v>643</v>
-      </c>
-      <c r="E87" t="s">
-        <v>641</v>
-      </c>
-      <c r="F87" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D88" t="s">
+        <v>644</v>
+      </c>
+      <c r="E88" t="s">
+        <v>642</v>
+      </c>
+      <c r="F88" t="s">
         <v>645</v>
-      </c>
-      <c r="E88" t="s">
-        <v>643</v>
-      </c>
-      <c r="F88" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D89" t="s">
+        <v>646</v>
+      </c>
+      <c r="E89" t="s">
+        <v>644</v>
+      </c>
+      <c r="F89" t="s">
         <v>647</v>
-      </c>
-      <c r="E89" t="s">
-        <v>645</v>
-      </c>
-      <c r="F89" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D90" t="s">
+        <v>648</v>
+      </c>
+      <c r="E90" t="s">
+        <v>646</v>
+      </c>
+      <c r="F90" t="s">
         <v>649</v>
-      </c>
-      <c r="E90" t="s">
-        <v>647</v>
-      </c>
-      <c r="F90" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D91" t="s">
+        <v>650</v>
+      </c>
+      <c r="E91" t="s">
+        <v>648</v>
+      </c>
+      <c r="F91" t="s">
         <v>651</v>
-      </c>
-      <c r="E91" t="s">
-        <v>649</v>
-      </c>
-      <c r="F91" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D92" t="s">
+        <v>652</v>
+      </c>
+      <c r="E92" t="s">
+        <v>650</v>
+      </c>
+      <c r="F92" t="s">
         <v>653</v>
-      </c>
-      <c r="E92" t="s">
-        <v>651</v>
-      </c>
-      <c r="F92" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D93" t="s">
+        <v>654</v>
+      </c>
+      <c r="E93" t="s">
+        <v>652</v>
+      </c>
+      <c r="F93" t="s">
         <v>655</v>
-      </c>
-      <c r="E93" t="s">
-        <v>653</v>
-      </c>
-      <c r="F93" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D94" t="s">
+        <v>656</v>
+      </c>
+      <c r="E94" t="s">
+        <v>654</v>
+      </c>
+      <c r="F94" t="s">
         <v>657</v>
-      </c>
-      <c r="E94" t="s">
-        <v>655</v>
-      </c>
-      <c r="F94" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D95" t="s">
+        <v>658</v>
+      </c>
+      <c r="E95" t="s">
+        <v>656</v>
+      </c>
+      <c r="F95" t="s">
         <v>659</v>
-      </c>
-      <c r="E95" t="s">
-        <v>657</v>
-      </c>
-      <c r="F95" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D96" t="s">
+        <v>660</v>
+      </c>
+      <c r="E96" t="s">
+        <v>658</v>
+      </c>
+      <c r="F96" t="s">
         <v>661</v>
-      </c>
-      <c r="E96" t="s">
-        <v>659</v>
-      </c>
-      <c r="F96" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D97" t="s">
+        <v>662</v>
+      </c>
+      <c r="E97" t="s">
+        <v>660</v>
+      </c>
+      <c r="F97" t="s">
         <v>663</v>
-      </c>
-      <c r="E97" t="s">
-        <v>661</v>
-      </c>
-      <c r="F97" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D98" t="s">
+        <v>664</v>
+      </c>
+      <c r="E98" t="s">
+        <v>662</v>
+      </c>
+      <c r="F98" t="s">
         <v>665</v>
-      </c>
-      <c r="E98" t="s">
-        <v>663</v>
-      </c>
-      <c r="F98" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D99" t="s">
+        <v>666</v>
+      </c>
+      <c r="E99" t="s">
+        <v>664</v>
+      </c>
+      <c r="F99" t="s">
         <v>667</v>
-      </c>
-      <c r="E99" t="s">
-        <v>665</v>
-      </c>
-      <c r="F99" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D100" t="s">
+        <v>668</v>
+      </c>
+      <c r="E100" t="s">
+        <v>666</v>
+      </c>
+      <c r="F100" t="s">
         <v>669</v>
-      </c>
-      <c r="E100" t="s">
-        <v>667</v>
-      </c>
-      <c r="F100" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D101" t="s">
+        <v>670</v>
+      </c>
+      <c r="E101" t="s">
+        <v>668</v>
+      </c>
+      <c r="F101" t="s">
         <v>671</v>
-      </c>
-      <c r="E101" t="s">
-        <v>669</v>
-      </c>
-      <c r="F101" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D102" t="s">
+        <v>672</v>
+      </c>
+      <c r="E102" t="s">
+        <v>670</v>
+      </c>
+      <c r="F102" t="s">
         <v>673</v>
-      </c>
-      <c r="E102" t="s">
-        <v>671</v>
-      </c>
-      <c r="F102" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D103" t="s">
+        <v>674</v>
+      </c>
+      <c r="E103" t="s">
+        <v>672</v>
+      </c>
+      <c r="F103" t="s">
         <v>675</v>
-      </c>
-      <c r="E103" t="s">
-        <v>673</v>
-      </c>
-      <c r="F103" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D104" t="s">
+        <v>676</v>
+      </c>
+      <c r="E104" t="s">
+        <v>674</v>
+      </c>
+      <c r="F104" t="s">
         <v>677</v>
-      </c>
-      <c r="E104" t="s">
-        <v>675</v>
-      </c>
-      <c r="F104" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D105" t="s">
+        <v>678</v>
+      </c>
+      <c r="E105" t="s">
+        <v>676</v>
+      </c>
+      <c r="F105" t="s">
         <v>679</v>
-      </c>
-      <c r="E105" t="s">
-        <v>677</v>
-      </c>
-      <c r="F105" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D106" t="s">
+        <v>680</v>
+      </c>
+      <c r="E106" t="s">
+        <v>678</v>
+      </c>
+      <c r="F106" t="s">
         <v>681</v>
-      </c>
-      <c r="E106" t="s">
-        <v>679</v>
-      </c>
-      <c r="F106" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D107" t="s">
+        <v>682</v>
+      </c>
+      <c r="E107" t="s">
+        <v>680</v>
+      </c>
+      <c r="F107" t="s">
         <v>683</v>
-      </c>
-      <c r="E107" t="s">
-        <v>681</v>
-      </c>
-      <c r="F107" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D108" t="s">
+        <v>684</v>
+      </c>
+      <c r="E108" t="s">
+        <v>682</v>
+      </c>
+      <c r="F108" t="s">
         <v>685</v>
-      </c>
-      <c r="E108" t="s">
-        <v>683</v>
-      </c>
-      <c r="F108" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D109" t="s">
+        <v>686</v>
+      </c>
+      <c r="E109" t="s">
+        <v>684</v>
+      </c>
+      <c r="F109" t="s">
         <v>687</v>
-      </c>
-      <c r="E109" t="s">
-        <v>685</v>
-      </c>
-      <c r="F109" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D110" t="s">
+        <v>688</v>
+      </c>
+      <c r="E110" t="s">
+        <v>686</v>
+      </c>
+      <c r="F110" t="s">
         <v>689</v>
-      </c>
-      <c r="E110" t="s">
-        <v>687</v>
-      </c>
-      <c r="F110" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D111" t="s">
+        <v>690</v>
+      </c>
+      <c r="E111" t="s">
+        <v>688</v>
+      </c>
+      <c r="F111" t="s">
         <v>691</v>
-      </c>
-      <c r="E111" t="s">
-        <v>689</v>
-      </c>
-      <c r="F111" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D112" t="s">
+        <v>692</v>
+      </c>
+      <c r="E112" t="s">
+        <v>690</v>
+      </c>
+      <c r="F112" t="s">
         <v>693</v>
-      </c>
-      <c r="E112" t="s">
-        <v>691</v>
-      </c>
-      <c r="F112" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D113" t="s">
+        <v>694</v>
+      </c>
+      <c r="E113" t="s">
+        <v>692</v>
+      </c>
+      <c r="F113" t="s">
         <v>695</v>
-      </c>
-      <c r="E113" t="s">
-        <v>693</v>
-      </c>
-      <c r="F113" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D114" t="s">
+        <v>696</v>
+      </c>
+      <c r="E114" t="s">
+        <v>694</v>
+      </c>
+      <c r="F114" t="s">
         <v>697</v>
-      </c>
-      <c r="E114" t="s">
-        <v>695</v>
-      </c>
-      <c r="F114" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D115" t="s">
+        <v>698</v>
+      </c>
+      <c r="E115" t="s">
+        <v>696</v>
+      </c>
+      <c r="F115" t="s">
         <v>699</v>
-      </c>
-      <c r="E115" t="s">
-        <v>697</v>
-      </c>
-      <c r="F115" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D116" t="s">
+        <v>700</v>
+      </c>
+      <c r="E116" t="s">
+        <v>698</v>
+      </c>
+      <c r="F116" t="s">
         <v>701</v>
-      </c>
-      <c r="E116" t="s">
-        <v>699</v>
-      </c>
-      <c r="F116" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D117" t="s">
+        <v>702</v>
+      </c>
+      <c r="E117" t="s">
+        <v>700</v>
+      </c>
+      <c r="F117" t="s">
         <v>703</v>
-      </c>
-      <c r="E117" t="s">
-        <v>701</v>
-      </c>
-      <c r="F117" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D118" t="s">
+        <v>704</v>
+      </c>
+      <c r="E118" t="s">
+        <v>702</v>
+      </c>
+      <c r="F118" t="s">
         <v>705</v>
-      </c>
-      <c r="E118" t="s">
-        <v>703</v>
-      </c>
-      <c r="F118" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D119" t="s">
+        <v>706</v>
+      </c>
+      <c r="E119" t="s">
+        <v>704</v>
+      </c>
+      <c r="F119" t="s">
         <v>707</v>
-      </c>
-      <c r="E119" t="s">
-        <v>705</v>
-      </c>
-      <c r="F119" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D120" t="s">
+        <v>708</v>
+      </c>
+      <c r="E120" t="s">
+        <v>706</v>
+      </c>
+      <c r="F120" t="s">
         <v>709</v>
-      </c>
-      <c r="E120" t="s">
-        <v>707</v>
-      </c>
-      <c r="F120" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D121" t="s">
+        <v>710</v>
+      </c>
+      <c r="E121" t="s">
+        <v>708</v>
+      </c>
+      <c r="F121" t="s">
         <v>711</v>
-      </c>
-      <c r="E121" t="s">
-        <v>709</v>
-      </c>
-      <c r="F121" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D122" t="s">
+        <v>712</v>
+      </c>
+      <c r="E122" t="s">
+        <v>710</v>
+      </c>
+      <c r="F122" t="s">
         <v>713</v>
-      </c>
-      <c r="E122" t="s">
-        <v>711</v>
-      </c>
-      <c r="F122" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D123" t="s">
+        <v>714</v>
+      </c>
+      <c r="E123" t="s">
+        <v>712</v>
+      </c>
+      <c r="F123" t="s">
         <v>715</v>
-      </c>
-      <c r="E123" t="s">
-        <v>713</v>
-      </c>
-      <c r="F123" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D124" t="s">
+        <v>716</v>
+      </c>
+      <c r="E124" t="s">
+        <v>714</v>
+      </c>
+      <c r="F124" t="s">
         <v>717</v>
-      </c>
-      <c r="E124" t="s">
-        <v>715</v>
-      </c>
-      <c r="F124" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D125" t="s">
+        <v>718</v>
+      </c>
+      <c r="E125" t="s">
+        <v>716</v>
+      </c>
+      <c r="F125" t="s">
         <v>719</v>
-      </c>
-      <c r="E125" t="s">
-        <v>717</v>
-      </c>
-      <c r="F125" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D126" t="s">
+        <v>720</v>
+      </c>
+      <c r="E126" t="s">
+        <v>718</v>
+      </c>
+      <c r="F126" t="s">
         <v>721</v>
-      </c>
-      <c r="E126" t="s">
-        <v>719</v>
-      </c>
-      <c r="F126" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D127" t="s">
+        <v>722</v>
+      </c>
+      <c r="E127" t="s">
+        <v>720</v>
+      </c>
+      <c r="F127" t="s">
         <v>723</v>
-      </c>
-      <c r="E127" t="s">
-        <v>721</v>
-      </c>
-      <c r="F127" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D128" t="s">
+        <v>724</v>
+      </c>
+      <c r="E128" t="s">
+        <v>724</v>
+      </c>
+      <c r="F128" t="s">
         <v>725</v>
-      </c>
-      <c r="E128" t="s">
-        <v>725</v>
-      </c>
-      <c r="F128" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D129" t="s">
+        <v>726</v>
+      </c>
+      <c r="E129" t="s">
+        <v>724</v>
+      </c>
+      <c r="F129" t="s">
         <v>727</v>
-      </c>
-      <c r="E129" t="s">
-        <v>725</v>
-      </c>
-      <c r="F129" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="130" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D130" t="s">
+        <v>728</v>
+      </c>
+      <c r="E130" t="s">
+        <v>726</v>
+      </c>
+      <c r="F130" t="s">
         <v>729</v>
-      </c>
-      <c r="E130" t="s">
-        <v>727</v>
-      </c>
-      <c r="F130" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="131" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D131" t="s">
+        <v>730</v>
+      </c>
+      <c r="E131" t="s">
+        <v>728</v>
+      </c>
+      <c r="F131" t="s">
         <v>731</v>
-      </c>
-      <c r="E131" t="s">
-        <v>729</v>
-      </c>
-      <c r="F131" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D132" t="s">
+        <v>732</v>
+      </c>
+      <c r="E132" t="s">
+        <v>730</v>
+      </c>
+      <c r="F132" t="s">
         <v>733</v>
-      </c>
-      <c r="E132" t="s">
-        <v>731</v>
-      </c>
-      <c r="F132" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="133" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D133" t="s">
+        <v>734</v>
+      </c>
+      <c r="E133" t="s">
+        <v>732</v>
+      </c>
+      <c r="F133" t="s">
         <v>735</v>
-      </c>
-      <c r="E133" t="s">
-        <v>733</v>
-      </c>
-      <c r="F133" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="134" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D134" t="s">
+        <v>736</v>
+      </c>
+      <c r="E134" t="s">
+        <v>734</v>
+      </c>
+      <c r="F134" t="s">
         <v>737</v>
-      </c>
-      <c r="E134" t="s">
-        <v>735</v>
-      </c>
-      <c r="F134" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="135" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D135" t="s">
+        <v>738</v>
+      </c>
+      <c r="E135" t="s">
+        <v>736</v>
+      </c>
+      <c r="F135" t="s">
         <v>739</v>
-      </c>
-      <c r="E135" t="s">
-        <v>737</v>
-      </c>
-      <c r="F135" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="136" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D136" t="s">
+        <v>740</v>
+      </c>
+      <c r="E136" t="s">
+        <v>738</v>
+      </c>
+      <c r="F136" t="s">
         <v>741</v>
-      </c>
-      <c r="E136" t="s">
-        <v>739</v>
-      </c>
-      <c r="F136" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="137" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D137" t="s">
+        <v>742</v>
+      </c>
+      <c r="E137" t="s">
+        <v>740</v>
+      </c>
+      <c r="F137" t="s">
         <v>743</v>
-      </c>
-      <c r="E137" t="s">
-        <v>741</v>
-      </c>
-      <c r="F137" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="138" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D138" t="s">
+        <v>744</v>
+      </c>
+      <c r="E138" t="s">
+        <v>742</v>
+      </c>
+      <c r="F138" t="s">
         <v>745</v>
-      </c>
-      <c r="E138" t="s">
-        <v>743</v>
-      </c>
-      <c r="F138" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="139" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D139" t="s">
+        <v>746</v>
+      </c>
+      <c r="E139" t="s">
+        <v>744</v>
+      </c>
+      <c r="F139" t="s">
         <v>747</v>
-      </c>
-      <c r="E139" t="s">
-        <v>745</v>
-      </c>
-      <c r="F139" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D140" t="s">
+        <v>748</v>
+      </c>
+      <c r="E140" t="s">
+        <v>746</v>
+      </c>
+      <c r="F140" t="s">
         <v>749</v>
-      </c>
-      <c r="E140" t="s">
-        <v>747</v>
-      </c>
-      <c r="F140" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="141" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D141" t="s">
+        <v>750</v>
+      </c>
+      <c r="E141" t="s">
+        <v>748</v>
+      </c>
+      <c r="F141" t="s">
         <v>751</v>
-      </c>
-      <c r="E141" t="s">
-        <v>749</v>
-      </c>
-      <c r="F141" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="142" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D142" t="s">
+        <v>752</v>
+      </c>
+      <c r="E142" t="s">
+        <v>750</v>
+      </c>
+      <c r="F142" t="s">
         <v>753</v>
-      </c>
-      <c r="E142" t="s">
-        <v>751</v>
-      </c>
-      <c r="F142" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D143" t="s">
+        <v>754</v>
+      </c>
+      <c r="E143" t="s">
+        <v>752</v>
+      </c>
+      <c r="F143" t="s">
         <v>755</v>
-      </c>
-      <c r="E143" t="s">
-        <v>753</v>
-      </c>
-      <c r="F143" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D144" t="s">
+        <v>756</v>
+      </c>
+      <c r="E144" t="s">
+        <v>754</v>
+      </c>
+      <c r="F144" t="s">
         <v>757</v>
-      </c>
-      <c r="E144" t="s">
-        <v>755</v>
-      </c>
-      <c r="F144" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="145" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D145" t="s">
+        <v>758</v>
+      </c>
+      <c r="E145" t="s">
+        <v>756</v>
+      </c>
+      <c r="F145" t="s">
         <v>759</v>
-      </c>
-      <c r="E145" t="s">
-        <v>757</v>
-      </c>
-      <c r="F145" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D146" t="s">
+        <v>760</v>
+      </c>
+      <c r="E146" t="s">
+        <v>758</v>
+      </c>
+      <c r="F146" t="s">
         <v>761</v>
-      </c>
-      <c r="E146" t="s">
-        <v>759</v>
-      </c>
-      <c r="F146" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D147" t="s">
+        <v>762</v>
+      </c>
+      <c r="E147" t="s">
+        <v>760</v>
+      </c>
+      <c r="F147" t="s">
         <v>763</v>
-      </c>
-      <c r="E147" t="s">
-        <v>761</v>
-      </c>
-      <c r="F147" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="148" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D148" t="s">
+        <v>764</v>
+      </c>
+      <c r="E148" t="s">
+        <v>762</v>
+      </c>
+      <c r="F148" t="s">
         <v>765</v>
-      </c>
-      <c r="E148" t="s">
-        <v>763</v>
-      </c>
-      <c r="F148" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="149" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D149" t="s">
+        <v>766</v>
+      </c>
+      <c r="E149" t="s">
+        <v>764</v>
+      </c>
+      <c r="F149" t="s">
         <v>767</v>
-      </c>
-      <c r="E149" t="s">
-        <v>765</v>
-      </c>
-      <c r="F149" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="150" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D150" t="s">
+        <v>768</v>
+      </c>
+      <c r="E150" t="s">
+        <v>766</v>
+      </c>
+      <c r="F150" t="s">
         <v>769</v>
-      </c>
-      <c r="E150" t="s">
-        <v>767</v>
-      </c>
-      <c r="F150" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="151" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D151" t="s">
+        <v>770</v>
+      </c>
+      <c r="E151" t="s">
+        <v>768</v>
+      </c>
+      <c r="F151" t="s">
         <v>771</v>
-      </c>
-      <c r="E151" t="s">
-        <v>769</v>
-      </c>
-      <c r="F151" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="152" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D152" t="s">
+        <v>772</v>
+      </c>
+      <c r="E152" t="s">
+        <v>770</v>
+      </c>
+      <c r="F152" t="s">
         <v>773</v>
-      </c>
-      <c r="E152" t="s">
-        <v>771</v>
-      </c>
-      <c r="F152" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="153" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D153" t="s">
+        <v>774</v>
+      </c>
+      <c r="E153" t="s">
+        <v>772</v>
+      </c>
+      <c r="F153" t="s">
         <v>775</v>
-      </c>
-      <c r="E153" t="s">
-        <v>773</v>
-      </c>
-      <c r="F153" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="154" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D154" t="s">
+        <v>776</v>
+      </c>
+      <c r="E154" t="s">
+        <v>774</v>
+      </c>
+      <c r="F154" t="s">
         <v>777</v>
-      </c>
-      <c r="E154" t="s">
-        <v>775</v>
-      </c>
-      <c r="F154" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="155" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D155" t="s">
+        <v>778</v>
+      </c>
+      <c r="E155" t="s">
+        <v>776</v>
+      </c>
+      <c r="F155" t="s">
         <v>779</v>
-      </c>
-      <c r="E155" t="s">
-        <v>777</v>
-      </c>
-      <c r="F155" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="156" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D156" t="s">
+        <v>780</v>
+      </c>
+      <c r="E156" t="s">
+        <v>778</v>
+      </c>
+      <c r="F156" t="s">
         <v>781</v>
-      </c>
-      <c r="E156" t="s">
-        <v>779</v>
-      </c>
-      <c r="F156" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="157" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D157" t="s">
+        <v>782</v>
+      </c>
+      <c r="E157" t="s">
+        <v>780</v>
+      </c>
+      <c r="F157" t="s">
         <v>783</v>
-      </c>
-      <c r="E157" t="s">
-        <v>781</v>
-      </c>
-      <c r="F157" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="158" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D158" t="s">
+        <v>784</v>
+      </c>
+      <c r="E158" t="s">
+        <v>782</v>
+      </c>
+      <c r="F158" t="s">
         <v>785</v>
-      </c>
-      <c r="E158" t="s">
-        <v>783</v>
-      </c>
-      <c r="F158" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="159" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D159" t="s">
+        <v>786</v>
+      </c>
+      <c r="E159" t="s">
+        <v>784</v>
+      </c>
+      <c r="F159" t="s">
         <v>787</v>
-      </c>
-      <c r="E159" t="s">
-        <v>785</v>
-      </c>
-      <c r="F159" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="160" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D160" t="s">
+        <v>788</v>
+      </c>
+      <c r="E160" t="s">
+        <v>786</v>
+      </c>
+      <c r="F160" t="s">
         <v>789</v>
-      </c>
-      <c r="E160" t="s">
-        <v>787</v>
-      </c>
-      <c r="F160" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D161" t="s">
+        <v>790</v>
+      </c>
+      <c r="E161" t="s">
+        <v>788</v>
+      </c>
+      <c r="F161" t="s">
         <v>791</v>
-      </c>
-      <c r="E161" t="s">
-        <v>789</v>
-      </c>
-      <c r="F161" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D162" t="s">
+        <v>792</v>
+      </c>
+      <c r="E162" t="s">
+        <v>790</v>
+      </c>
+      <c r="F162" t="s">
         <v>793</v>
-      </c>
-      <c r="E162" t="s">
-        <v>791</v>
-      </c>
-      <c r="F162" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D163" t="s">
+        <v>794</v>
+      </c>
+      <c r="E163" t="s">
+        <v>792</v>
+      </c>
+      <c r="F163" t="s">
         <v>795</v>
-      </c>
-      <c r="E163" t="s">
-        <v>793</v>
-      </c>
-      <c r="F163" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D164" t="s">
+        <v>796</v>
+      </c>
+      <c r="E164" t="s">
+        <v>794</v>
+      </c>
+      <c r="F164" t="s">
         <v>797</v>
-      </c>
-      <c r="E164" t="s">
-        <v>795</v>
-      </c>
-      <c r="F164" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D165" t="s">
+        <v>798</v>
+      </c>
+      <c r="E165" t="s">
+        <v>796</v>
+      </c>
+      <c r="F165" t="s">
         <v>799</v>
-      </c>
-      <c r="E165" t="s">
-        <v>797</v>
-      </c>
-      <c r="F165" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D166" t="s">
+        <v>800</v>
+      </c>
+      <c r="E166" t="s">
+        <v>798</v>
+      </c>
+      <c r="F166" t="s">
         <v>801</v>
-      </c>
-      <c r="E166" t="s">
-        <v>799</v>
-      </c>
-      <c r="F166" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D167" t="s">
+        <v>802</v>
+      </c>
+      <c r="E167" t="s">
+        <v>800</v>
+      </c>
+      <c r="F167" t="s">
         <v>803</v>
-      </c>
-      <c r="E167" t="s">
-        <v>801</v>
-      </c>
-      <c r="F167" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D168" t="s">
+        <v>804</v>
+      </c>
+      <c r="E168" t="s">
+        <v>802</v>
+      </c>
+      <c r="F168" t="s">
         <v>805</v>
-      </c>
-      <c r="E168" t="s">
-        <v>803</v>
-      </c>
-      <c r="F168" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D169" t="s">
+        <v>806</v>
+      </c>
+      <c r="E169" t="s">
+        <v>804</v>
+      </c>
+      <c r="F169" t="s">
         <v>807</v>
-      </c>
-      <c r="E169" t="s">
-        <v>805</v>
-      </c>
-      <c r="F169" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D170" t="s">
+        <v>808</v>
+      </c>
+      <c r="E170" t="s">
+        <v>806</v>
+      </c>
+      <c r="F170" t="s">
         <v>809</v>
-      </c>
-      <c r="E170" t="s">
-        <v>807</v>
-      </c>
-      <c r="F170" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D171" t="s">
+        <v>810</v>
+      </c>
+      <c r="E171" t="s">
+        <v>808</v>
+      </c>
+      <c r="F171" t="s">
         <v>811</v>
-      </c>
-      <c r="E171" t="s">
-        <v>809</v>
-      </c>
-      <c r="F171" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D172" t="s">
+        <v>812</v>
+      </c>
+      <c r="E172" t="s">
+        <v>810</v>
+      </c>
+      <c r="F172" t="s">
         <v>813</v>
-      </c>
-      <c r="E172" t="s">
-        <v>811</v>
-      </c>
-      <c r="F172" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D173" t="s">
+        <v>814</v>
+      </c>
+      <c r="E173" t="s">
+        <v>812</v>
+      </c>
+      <c r="F173" t="s">
         <v>815</v>
-      </c>
-      <c r="E173" t="s">
-        <v>813</v>
-      </c>
-      <c r="F173" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D174" t="s">
+        <v>816</v>
+      </c>
+      <c r="E174" t="s">
+        <v>814</v>
+      </c>
+      <c r="F174" t="s">
         <v>817</v>
-      </c>
-      <c r="E174" t="s">
-        <v>815</v>
-      </c>
-      <c r="F174" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D175" t="s">
+        <v>818</v>
+      </c>
+      <c r="E175" t="s">
+        <v>816</v>
+      </c>
+      <c r="F175" t="s">
         <v>819</v>
-      </c>
-      <c r="E175" t="s">
-        <v>817</v>
-      </c>
-      <c r="F175" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D176" t="s">
+        <v>820</v>
+      </c>
+      <c r="E176" t="s">
+        <v>818</v>
+      </c>
+      <c r="F176" t="s">
         <v>821</v>
-      </c>
-      <c r="E176" t="s">
-        <v>819</v>
-      </c>
-      <c r="F176" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="177" spans="4:6" x14ac:dyDescent="0.4">
@@ -11720,373 +12171,373 @@
         <v>41987278</v>
       </c>
       <c r="E177" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F177" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="178" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D178" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E178">
         <v>41987278</v>
       </c>
       <c r="F178" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="179" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D179" t="s">
+        <v>825</v>
+      </c>
+      <c r="E179" t="s">
+        <v>823</v>
+      </c>
+      <c r="F179" t="s">
         <v>826</v>
-      </c>
-      <c r="E179" t="s">
-        <v>824</v>
-      </c>
-      <c r="F179" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="180" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D180" t="s">
+        <v>827</v>
+      </c>
+      <c r="E180" t="s">
+        <v>825</v>
+      </c>
+      <c r="F180" t="s">
         <v>828</v>
-      </c>
-      <c r="E180" t="s">
-        <v>826</v>
-      </c>
-      <c r="F180" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="181" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D181" t="s">
+        <v>829</v>
+      </c>
+      <c r="E181" t="s">
+        <v>827</v>
+      </c>
+      <c r="F181" t="s">
         <v>830</v>
-      </c>
-      <c r="E181" t="s">
-        <v>828</v>
-      </c>
-      <c r="F181" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="182" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D182" t="s">
+        <v>831</v>
+      </c>
+      <c r="E182" t="s">
+        <v>829</v>
+      </c>
+      <c r="F182" t="s">
         <v>832</v>
-      </c>
-      <c r="E182" t="s">
-        <v>830</v>
-      </c>
-      <c r="F182" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="183" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D183" t="s">
+        <v>833</v>
+      </c>
+      <c r="E183" t="s">
+        <v>831</v>
+      </c>
+      <c r="F183" t="s">
         <v>834</v>
-      </c>
-      <c r="E183" t="s">
-        <v>832</v>
-      </c>
-      <c r="F183" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="184" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D184" t="s">
+        <v>835</v>
+      </c>
+      <c r="E184" t="s">
+        <v>833</v>
+      </c>
+      <c r="F184" t="s">
         <v>836</v>
-      </c>
-      <c r="E184" t="s">
-        <v>834</v>
-      </c>
-      <c r="F184" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="185" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D185" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E185" t="s">
+        <v>835</v>
+      </c>
+      <c r="F185" t="s">
         <v>836</v>
-      </c>
-      <c r="F185" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="186" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D186" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E186" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F186" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="187" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D187" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E187" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F187" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="188" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D188" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E188" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F188" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="189" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D189" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E189" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F189" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="190" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D190" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E190" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F190" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="191" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D191" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E191" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F191" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="192" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D192" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E192" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F192" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="193" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D193" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E193" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F193" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="194" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D194" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E194" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F194" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="195" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D195" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E195" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F195" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="196" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D196" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E196" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F196" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="197" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D197" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E197" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F197" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="198" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D198" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E198" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F198" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="199" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D199" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E199" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F199" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="200" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D200" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E200" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F200" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="201" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D201" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E201" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F201" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="202" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D202" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E202" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F202" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="203" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D203" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E203" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F203" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="204" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D204" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E204" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F204" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="205" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D205" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E205" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F205" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="206" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D206" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E206" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F206" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="207" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D207" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E207" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F207" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="208" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D208" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E208" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F208" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="209" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D209" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E209" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F209" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="210" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D210" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E210" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F210" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -12099,7 +12550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD637B-6B75-4D2C-A61D-46028C0DFBB5}">
   <dimension ref="L21:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22:T27"/>
     </sheetView>
   </sheetViews>
@@ -12517,7 +12968,7 @@
         <v>185</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AM4" s="4" t="s">
         <v>192</v>
@@ -12544,7 +12995,7 @@
         <v>185</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AW4" s="4" t="s">
         <v>192</v>
@@ -12571,7 +13022,7 @@
         <v>185</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="2:57" x14ac:dyDescent="0.4">
@@ -17327,7 +17778,7 @@
         <v>185</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>192</v>
@@ -17354,7 +17805,7 @@
         <v>185</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>192</v>
@@ -17381,7 +17832,7 @@
         <v>185</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.4">
@@ -22131,8 +22582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417E4B38-5C69-4A86-9D4F-FF4D9A7F1731}">
   <dimension ref="C5:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C52" sqref="C5:E52"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C52" sqref="C5:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23843,10 +24294,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBA5D23-37B5-48BF-A38D-88135429EC30}">
-  <dimension ref="C3:E50"/>
+  <dimension ref="C3:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23854,9 +24305,10 @@
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>91</v>
       </c>
@@ -23866,8 +24318,14 @@
       <c r="E3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>90</v>
       </c>
@@ -23877,8 +24335,14 @@
       <c r="E4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>156</v>
       </c>
@@ -23888,8 +24352,14 @@
       <c r="E5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -23899,8 +24369,14 @@
       <c r="E6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -23910,8 +24386,14 @@
       <c r="E7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>86</v>
       </c>
@@ -23921,8 +24403,14 @@
       <c r="E8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>155</v>
       </c>
@@ -23932,8 +24420,14 @@
       <c r="E9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>94</v>
       </c>
@@ -23943,8 +24437,14 @@
       <c r="E10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>700</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>93</v>
       </c>
@@ -23954,8 +24454,14 @@
       <c r="E11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <v>700</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -23965,8 +24471,14 @@
       <c r="E12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>800</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -23976,8 +24488,14 @@
       <c r="E13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>800</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>73</v>
       </c>
@@ -23987,8 +24505,14 @@
       <c r="E14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -23998,8 +24522,14 @@
       <c r="E15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>72</v>
       </c>
@@ -24009,8 +24539,14 @@
       <c r="E16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <v>1200</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -24020,8 +24556,14 @@
       <c r="E17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <v>1200</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>70</v>
       </c>
@@ -24031,8 +24573,14 @@
       <c r="E18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <v>1300</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>88</v>
       </c>
@@ -24042,8 +24590,14 @@
       <c r="E19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F19">
+        <v>1300</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -24053,8 +24607,14 @@
       <c r="E20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <v>1500</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>68</v>
       </c>
@@ -24064,8 +24624,14 @@
       <c r="E21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <v>1500</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>67</v>
       </c>
@@ -24075,8 +24641,14 @@
       <c r="E22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F22">
+        <v>1600</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -24086,8 +24658,14 @@
       <c r="E23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F23">
+        <v>1800</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>63</v>
       </c>
@@ -24097,8 +24675,14 @@
       <c r="E24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <v>1800</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>58</v>
       </c>
@@ -24108,8 +24692,14 @@
       <c r="E25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <v>2000</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>57</v>
       </c>
@@ -24119,8 +24709,14 @@
       <c r="E26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <v>2000</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>153</v>
       </c>
@@ -24130,8 +24726,14 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <v>2500</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>56</v>
       </c>
@@ -24141,8 +24743,14 @@
       <c r="E28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <v>3000</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -24152,8 +24760,14 @@
       <c r="E29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <v>3000</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>52</v>
       </c>
@@ -24163,8 +24777,14 @@
       <c r="E30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <v>3000</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>50</v>
       </c>
@@ -24174,8 +24794,14 @@
       <c r="E31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <v>3000</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>48</v>
       </c>
@@ -24185,8 +24811,14 @@
       <c r="E32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <v>3800</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>46</v>
       </c>
@@ -24196,8 +24828,14 @@
       <c r="E33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <v>3800</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>152</v>
       </c>
@@ -24207,8 +24845,14 @@
       <c r="E34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <v>4000</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>151</v>
       </c>
@@ -24218,8 +24862,14 @@
       <c r="E35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <v>7000</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -24229,8 +24879,14 @@
       <c r="E36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <v>8000</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -24240,8 +24896,14 @@
       <c r="E37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <v>8000</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>39</v>
       </c>
@@ -24251,8 +24913,14 @@
       <c r="E38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <v>8000</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>37</v>
       </c>
@@ -24262,8 +24930,14 @@
       <c r="E39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <v>10000</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -24273,8 +24947,14 @@
       <c r="E40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <v>12000</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -24284,8 +24964,14 @@
       <c r="E41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <v>15000</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>31</v>
       </c>
@@ -24295,8 +24981,14 @@
       <c r="E42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <v>18000</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -24306,8 +24998,14 @@
       <c r="E43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <v>20000</v>
+      </c>
+      <c r="I43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>27</v>
       </c>
@@ -24317,8 +25015,14 @@
       <c r="E44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F44">
+        <v>30000</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -24328,8 +25032,14 @@
       <c r="E45" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <v>30000</v>
+      </c>
+      <c r="I45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>23</v>
       </c>
@@ -24339,8 +25049,14 @@
       <c r="E46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F46">
+        <v>30000</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -24350,8 +25066,14 @@
       <c r="E47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F47">
+        <v>38000</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -24361,8 +25083,14 @@
       <c r="E48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F48">
+        <v>50000</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -24372,8 +25100,11 @@
       <c r="E49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="F49">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -24383,9 +25114,12 @@
       <c r="E50" t="s">
         <v>16</v>
       </c>
+      <c r="F50">
+        <v>120000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F50">
     <sortCondition descending="1" ref="B3:B50"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/TouchPanic/tools/タッチパニック.xlsx
+++ b/TouchPanic/tools/タッチパニック.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\emulator\desmume-0.9.11-win64\Git\TouchPanic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A98F27-1732-4D72-8238-B710F1AE6141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1340DD1-36D7-4C9D-A676-15FEB38D0C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23445" yWindow="4380" windowWidth="22485" windowHeight="15810" activeTab="1" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
+    <workbookView xWindow="41445" yWindow="12150" windowWidth="22485" windowHeight="15810" activeTab="7" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="882">
   <si>
     <t>左上</t>
     <rPh sb="0" eb="2">
@@ -3919,6 +3919,18 @@
     <rPh sb="10" eb="12">
       <t>コテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソールドアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソールドアウトサンド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5730,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CA301-CCBD-476B-A030-04190DAACB76}">
   <dimension ref="B2:R230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8627,7 +8639,9 @@
       <c r="D100" s="8">
         <v>4</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="8" t="s">
+        <v>875</v>
+      </c>
       <c r="F100" s="2" t="s">
         <v>406</v>
       </c>
@@ -8646,7 +8660,9 @@
       <c r="D101" s="8">
         <v>4</v>
       </c>
-      <c r="E101" s="8"/>
+      <c r="E101" s="8" t="s">
+        <v>875</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>407</v>
       </c>
@@ -8664,7 +8680,9 @@
       <c r="D102" s="8">
         <v>4</v>
       </c>
-      <c r="E102" s="8"/>
+      <c r="E102" s="8" t="s">
+        <v>875</v>
+      </c>
       <c r="F102" s="2" t="s">
         <v>408</v>
       </c>
@@ -8682,7 +8700,9 @@
       <c r="D103" s="8">
         <v>4</v>
       </c>
-      <c r="E103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>875</v>
+      </c>
       <c r="F103" s="2" t="s">
         <v>409</v>
       </c>
@@ -8702,7 +8722,9 @@
       <c r="D104" s="8">
         <v>4</v>
       </c>
-      <c r="E104" s="8"/>
+      <c r="E104" s="8" t="s">
+        <v>875</v>
+      </c>
       <c r="F104" s="2" t="s">
         <v>410</v>
       </c>
@@ -12551,7 +12573,7 @@
   <dimension ref="L21:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:T27"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12823,8 +12845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC41E500-797C-441A-9D27-7CA81ACC6972}">
   <dimension ref="B4:BE54"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5:AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24294,833 +24316,592 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBA5D23-37B5-48BF-A38D-88135429EC30}">
-  <dimension ref="C3:I50"/>
+  <dimension ref="B3:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="I3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="I4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-      <c r="I5">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
         <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>7</v>
+      </c>
       <c r="C9" t="s">
         <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>880</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10">
-        <v>700</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>9</v>
+      </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11">
-        <v>700</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12">
-        <v>800</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>11</v>
+      </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13">
-        <v>800</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>12</v>
+      </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>13</v>
+      </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>14</v>
+      </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16">
-        <v>1200</v>
-      </c>
-      <c r="I16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>15</v>
+      </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17">
-        <v>1200</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>16</v>
+      </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18">
-        <v>1300</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>17</v>
+      </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19">
-        <v>1300</v>
-      </c>
-      <c r="I19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>18</v>
+      </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20">
-        <v>1500</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>19</v>
+      </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21">
-        <v>1500</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>20</v>
+      </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>881</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22">
-        <v>1600</v>
-      </c>
-      <c r="I22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>21</v>
+      </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23">
-        <v>1800</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>22</v>
+      </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24">
-        <v>1800</v>
-      </c>
-      <c r="I24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>23</v>
+      </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25">
-        <v>2000</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>24</v>
+      </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26">
-        <v>2000</v>
-      </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <v>2500</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>26</v>
+      </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28">
-        <v>3000</v>
-      </c>
-      <c r="I28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>27</v>
+      </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29">
-        <v>3000</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>28</v>
+      </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30">
-        <v>3000</v>
-      </c>
-      <c r="I30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>29</v>
+      </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31">
-        <v>3000</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>30</v>
+      </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32">
-        <v>3800</v>
-      </c>
-      <c r="I32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>31</v>
+      </c>
       <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48">
         <v>46</v>
       </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33">
-        <v>3800</v>
-      </c>
-      <c r="I33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34">
-        <v>4000</v>
-      </c>
-      <c r="I34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35">
-        <v>7000</v>
-      </c>
-      <c r="I35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36">
-        <v>8000</v>
-      </c>
-      <c r="I36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37">
-        <v>8000</v>
-      </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38">
-        <v>8000</v>
-      </c>
-      <c r="I38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39">
-        <v>10000</v>
-      </c>
-      <c r="I39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40">
-        <v>12000</v>
-      </c>
-      <c r="I40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41">
-        <v>15000</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42">
-        <v>18000</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43">
-        <v>20000</v>
-      </c>
-      <c r="I43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44">
-        <v>30000</v>
-      </c>
-      <c r="I44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45">
-        <v>30000</v>
-      </c>
-      <c r="I45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46">
-        <v>30000</v>
-      </c>
-      <c r="I46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>38000</v>
-      </c>
-      <c r="I47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48">
-        <v>50000</v>
-      </c>
-      <c r="I48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="F50">
-        <v>120000</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F50">
-    <sortCondition descending="1" ref="B3:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F48">
+    <sortCondition descending="1" ref="B3:B48"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TouchPanic/tools/タッチパニック.xlsx
+++ b/TouchPanic/tools/タッチパニック.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\emulator\desmume-0.9.11-win64\Git\TouchPanic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1340DD1-36D7-4C9D-A676-15FEB38D0C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB32D4-F19A-4B2B-967D-69D95D104E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41445" yWindow="12150" windowWidth="22485" windowHeight="15810" activeTab="7" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="886">
   <si>
     <t>左上</t>
     <rPh sb="0" eb="2">
@@ -3931,6 +3931,22 @@
   </si>
   <si>
     <t>ソールドアウトサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェミニュードサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クインテットサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコーピオ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -24319,7 +24335,7 @@
   <dimension ref="B3:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24634,16 +24650,22 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
+      <c r="E24" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>882</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
@@ -24656,16 +24678,22 @@
       <c r="D26" t="s">
         <v>59</v>
       </c>
+      <c r="E26" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>883</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
@@ -24678,6 +24706,9 @@
       <c r="D28" t="s">
         <v>53</v>
       </c>
+      <c r="E28" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29">
@@ -24689,6 +24720,9 @@
       <c r="D29" t="s">
         <v>51</v>
       </c>
+      <c r="E29" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30">
@@ -24700,6 +24734,9 @@
       <c r="D30" t="s">
         <v>49</v>
       </c>
+      <c r="E30" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31">
@@ -24711,30 +24748,39 @@
       <c r="D31" t="s">
         <v>47</v>
       </c>
+      <c r="E31" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>884</v>
       </c>
       <c r="D32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E32" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>885</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>32</v>
       </c>
@@ -24744,8 +24790,11 @@
       <c r="D34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>33</v>
       </c>
@@ -24756,7 +24805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>34</v>
       </c>
@@ -24767,7 +24816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>35</v>
       </c>
@@ -24778,7 +24827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>36</v>
       </c>
@@ -24789,7 +24838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>37</v>
       </c>
@@ -24800,7 +24849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>38</v>
       </c>
@@ -24811,7 +24860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>39</v>
       </c>
@@ -24822,7 +24871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>40</v>
       </c>
@@ -24833,7 +24882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>41</v>
       </c>
@@ -24844,7 +24893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>42</v>
       </c>
@@ -24855,7 +24904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>43</v>
       </c>
@@ -24866,7 +24915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>44</v>
       </c>
@@ -24877,7 +24926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>45</v>
       </c>
@@ -24888,7 +24937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>46</v>
       </c>

--- a/TouchPanic/tools/タッチパニック.xlsx
+++ b/TouchPanic/tools/タッチパニック.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\emulator\desmume-0.9.11-win64\Git\TouchPanic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB32D4-F19A-4B2B-967D-69D95D104E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5796936-33BF-4F0C-B3A2-D4D25EB396CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41445" yWindow="12150" windowWidth="22485" windowHeight="15810" activeTab="7" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
+    <workbookView xWindow="41310" yWindow="14970" windowWidth="22485" windowHeight="15810" activeTab="7" xr2:uid="{B471168B-000C-4083-8B3E-E6B3D53D80D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="888">
   <si>
     <t>左上</t>
     <rPh sb="0" eb="2">
@@ -3947,6 +3947,14 @@
   </si>
   <si>
     <t>スコーピオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シクセリオンサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルキーウェイ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -24334,8 +24342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBA5D23-37B5-48BF-A38D-88135429EC30}">
   <dimension ref="B3:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24799,10 +24807,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>886</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
@@ -24815,6 +24826,9 @@
       <c r="D36" t="s">
         <v>40</v>
       </c>
+      <c r="E36" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37">
@@ -24826,16 +24840,22 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
+      <c r="E37" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>887</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
@@ -24848,6 +24868,9 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
+      <c r="E39" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40">
@@ -24859,6 +24882,9 @@
       <c r="D40" t="s">
         <v>32</v>
       </c>
+      <c r="E40" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41">
@@ -24870,6 +24896,9 @@
       <c r="D41" t="s">
         <v>30</v>
       </c>
+      <c r="E41" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42">
@@ -24881,6 +24910,9 @@
       <c r="D42" t="s">
         <v>28</v>
       </c>
+      <c r="E42" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43">
@@ -24892,6 +24924,9 @@
       <c r="D43" t="s">
         <v>26</v>
       </c>
+      <c r="E43" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44">
@@ -24903,6 +24938,9 @@
       <c r="D44" t="s">
         <v>24</v>
       </c>
+      <c r="E44" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45">
@@ -24914,6 +24952,9 @@
       <c r="D45" t="s">
         <v>22</v>
       </c>
+      <c r="E45" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46">
@@ -24925,6 +24966,9 @@
       <c r="D46" t="s">
         <v>20</v>
       </c>
+      <c r="E46" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47">
@@ -24936,6 +24980,9 @@
       <c r="D47" t="s">
         <v>18</v>
       </c>
+      <c r="E47" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48">
@@ -24946,6 +24993,9 @@
       </c>
       <c r="D48" t="s">
         <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
